--- a/medicine/Mort/Exécution_extrajudiciaire/Exécution_extrajudiciaire.xlsx
+++ b/medicine/Mort/Exécution_extrajudiciaire/Exécution_extrajudiciaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cution_extrajudiciaire</t>
+          <t>Exécution_extrajudiciaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une exécution extrajudiciaire (ou assassinat ciblé) est l'assassinat d'une personne par des autorités gouvernementales ou des individus, sans procédure judiciaire ni procès légal.
 Les exécutions extrajudiciaires ont souvent pour cibles des figures influentes du monde politique, syndical, dissident, religieux ou social.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cution_extrajudiciaire</t>
+          <t>Exécution_extrajudiciaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,176 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Europe
-France
-En 1944, principalement à partir de la libération progressive du territoire, des groupes armés se réclamant de la résistance ont exécuté environ 10 000 personnes, ce que les historiens qualifient d'épuration extrajudiciaire, les documents d'archives parlent de "répression à la Libération".[réf. nécessaire]
-François Hollande, du temps où il était président de la France, a ordonné huit exécutions extrajudiciaires de terroristes. Sept de ces exécutions ont été accomplies à l'étranger par des Américains[1],[2].
-Russie
-Les autorités russes sont accusées de nombreuses exécutions extrajudiciaires, commises soit en Russie (par exemple l'assassinat de la journaliste Anna Politkovskaïa) soit à l'étranger (comme l'assassinat d'Alexandre Litvinenko )[3],[4],[5].
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1944, principalement à partir de la libération progressive du territoire, des groupes armés se réclamant de la résistance ont exécuté environ 10 000 personnes, ce que les historiens qualifient d'épuration extrajudiciaire, les documents d'archives parlent de "répression à la Libération".[réf. nécessaire]
+François Hollande, du temps où il était président de la France, a ordonné huit exécutions extrajudiciaires de terroristes. Sept de ces exécutions ont été accomplies à l'étranger par des Américains,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exécution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ex%C3%A9cution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autorités russes sont accusées de nombreuses exécutions extrajudiciaires, commises soit en Russie (par exemple l'assassinat de la journaliste Anna Politkovskaïa) soit à l'étranger (comme l'assassinat d'Alexandre Litvinenko ).
 En mars 2018, le gouvernement britannique, déclarant avoir la preuve que l'empoisonnement de Sergueï et Ioulia Skripal, commis sur le sol britannique, a été commandé par l'État russe, témoigne une grande indignation à l'égard de ces pratiques.[réf. nécessaire]
-Royaume-Uni
-En Irlande du Nord, des membres des forces armées britanniques, la Police royale de l'Ulster et des agents britanniques ont parfois tué sans couverture légale durant le Conflit nord-irlandais[6],[7].
-Le 1er mars 2018, après une bataille légale menée par les associations Reprieve et Privacy International, le gouvernement britannique a reconnu pour la première fois publiquement que les officiers traitants du MI5 peuvent autoriser leurs informateurs à participer à des crimes sur le territoire du Royaume-Uni si c'est estimé nécessaire pour qu'ils aient accès à des renseignements qui permettraient de prévenir des menaces plus graves. Les crimes autorisés incluent l'assassinat, la torture et l'agression sexuelle. Le MI6, lui, est autorisé à commettre des crimes à l'étranger[8],[9].
-Amérique latine
-Les exécutions extrajudiciaires sont très utilisées par les autorités mexicaines durant la Guerre de la drogue au Mexique, en réponse aux nombreux assassinats de policiers par les narcotrafiquants. Cela pose des problèmes car des innocents ou des gens forcés de travailler pour les cartels sont fréquemment exécutés par erreur. En septembre 2019, la Commission nationale des droits de l'homme du Mexique, organisme créé en 1992, annonce ouvrir une enquête à la suite de huit exécutions extrajudiciaires présumées à Nuevo Laredo commises par des policiers, mais les autorités démentent. De plus, il arrive que des gens soient exécutés pour des raisons absolument disproportionnées, comme l'exécution le 5 juin 2020 d'un jeune maçon, Giovanni López, qui a été battu à mort par la police d'Ixtlahuacán car il travaillait sans porter de masque en pleine pandémie, ce qui a provoqué un important mouvement social pour demander justice[10],[11].
-Asie du Sud-Est
-Aux Philippines, plus de 7 000 exécutions extrajudiciaires sont pratiquées en moins d'un an dans le cadre de la guerre contre la drogue menée par le président Rodrigo Duterte à partir de 2016[12],[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Exécution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ex%C3%A9cution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Irlande du Nord, des membres des forces armées britanniques, la Police royale de l'Ulster et des agents britanniques ont parfois tué sans couverture légale durant le Conflit nord-irlandais,.
+Le 1er mars 2018, après une bataille légale menée par les associations Reprieve et Privacy International, le gouvernement britannique a reconnu pour la première fois publiquement que les officiers traitants du MI5 peuvent autoriser leurs informateurs à participer à des crimes sur le territoire du Royaume-Uni si c'est estimé nécessaire pour qu'ils aient accès à des renseignements qui permettraient de prévenir des menaces plus graves. Les crimes autorisés incluent l'assassinat, la torture et l'agression sexuelle. Le MI6, lui, est autorisé à commettre des crimes à l'étranger,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exécution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ex%C3%A9cution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exécutions extrajudiciaires sont très utilisées par les autorités mexicaines durant la Guerre de la drogue au Mexique, en réponse aux nombreux assassinats de policiers par les narcotrafiquants. Cela pose des problèmes car des innocents ou des gens forcés de travailler pour les cartels sont fréquemment exécutés par erreur. En septembre 2019, la Commission nationale des droits de l'homme du Mexique, organisme créé en 1992, annonce ouvrir une enquête à la suite de huit exécutions extrajudiciaires présumées à Nuevo Laredo commises par des policiers, mais les autorités démentent. De plus, il arrive que des gens soient exécutés pour des raisons absolument disproportionnées, comme l'exécution le 5 juin 2020 d'un jeune maçon, Giovanni López, qui a été battu à mort par la police d'Ixtlahuacán car il travaillait sans porter de masque en pleine pandémie, ce qui a provoqué un important mouvement social pour demander justice,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exécution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ex%C3%A9cution_extrajudiciaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asie du Sud-Est</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Philippines, plus de 7 000 exécutions extrajudiciaires sont pratiquées en moins d'un an dans le cadre de la guerre contre la drogue menée par le président Rodrigo Duterte à partir de 2016,.
 </t>
         </is>
       </c>
